--- a/Logs/Logs.xlsx
+++ b/Logs/Logs.xlsx
@@ -1,63 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Title_Files\Logs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
-  <si>
-    <t>User_Name</t>
-  </si>
-  <si>
-    <t>Start_Time</t>
-  </si>
-  <si>
-    <t>End_Time</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Sachin.J</t>
-  </si>
-  <si>
-    <t>Task Completed</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,30 +48,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,274 +421,331 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" customWidth="1"/>
-    <col min="3" max="3" width="30.90625" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" customWidth="1"/>
+    <col width="13.453125" customWidth="1" min="1" max="1"/>
+    <col width="25.1796875" customWidth="1" min="2" max="2"/>
+    <col width="30.90625" customWidth="1" min="3" max="3"/>
+    <col width="22.08984375" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>45026.459541122676</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>45026.460246840281</v>
-      </c>
-      <c r="C3" s="3">
-        <v>45026.460247175928</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>User_Name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Start_Time</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>End_Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>45026.45954112268</v>
+      </c>
+      <c r="C2" s="4" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>45026.46024684028</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>45026.46024717593</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="4" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
         <v>45026.46113653935</v>
       </c>
-      <c r="C7" s="3">
-        <v>45026.461136828701</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="C7" s="4" t="n">
+        <v>45026.4611368287</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
         <v>45026.46222858796</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3">
-        <v>45026.462534918981</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3">
-        <v>45026.462780000002</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3">
-        <v>45026.462948645843</v>
-      </c>
-      <c r="C11" s="3">
-        <v>45026.462948900473</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3">
-        <v>45026.465562199082</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>45026.466676122684</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3">
-        <v>45026.467256076387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3">
-        <v>45026.470543402778</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3">
-        <v>45026.487542856179</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="3"/>
+      <c r="C8" s="4" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>45026.46253491898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>45026.46278</v>
+      </c>
+      <c r="C10" s="4" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>45026.46294864584</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>45026.46294890047</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>45026.46556219908</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>45026.46667612268</v>
+      </c>
+      <c r="C13" s="4" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>45026.46725607639</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>45026.47054340278</v>
+      </c>
+      <c r="C15" s="4" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>45026.4875428588</v>
+      </c>
+      <c r="C16" s="4" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>45026.82137549084</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>45026.8213757567</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="4" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="4" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="4" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="4" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="4" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="4" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="4" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="4" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="4" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="4" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="4" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="4" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="4" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="4" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="4" t="n"/>
+      <c r="C32" s="4" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="4" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="4" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="4" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="4" t="n"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="4" t="n"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="4" t="n"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="4" t="n"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="4" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="4" t="n"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="4" t="n"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="4" t="n"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="4" t="n"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="4" t="n"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="4" t="n"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="4" t="n"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="4" t="n"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="4" t="n"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="4" t="n"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="4" t="n"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logs/Logs.xlsx
+++ b/Logs/Logs.xlsx
@@ -432,7 +432,7 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="13.453125" customWidth="1" min="1" max="1"/>
     <col width="25.1796875" customWidth="1" min="2" max="2"/>
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>45026.82137549084</v>
+        <v>45026.82137548611</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>45026.8213757567</v>
+        <v>45026.82137575231</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -642,7 +642,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="4" t="n"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>45027.45961127426</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="4" t="n"/>

--- a/Logs/Logs.xlsx
+++ b/Logs/Logs.xlsx
@@ -19,12 +19,20 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,14 +58,14 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -429,10 +437,10 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="13.453125" customWidth="1" min="1" max="1"/>
     <col width="25.1796875" customWidth="1" min="2" max="2"/>
@@ -440,23 +448,23 @@
     <col width="22.08984375" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="15.5" customHeight="1">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>User_Name</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Start_Time</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>End_Time</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -468,10 +476,10 @@
           <t>Sachin.J</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="2" t="n">
         <v>45026.45954112268</v>
       </c>
-      <c r="C2" s="4" t="n"/>
+      <c r="C2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -479,10 +487,10 @@
           <t>Sachin.J</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="2" t="n">
         <v>45026.46024684028</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="2" t="n">
         <v>45026.46024717593</v>
       </c>
       <c r="D3" t="inlineStr">
@@ -492,15 +500,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="4" t="n"/>
-      <c r="C4" s="4" t="n"/>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="4" t="n"/>
-      <c r="C5" s="4" t="n"/>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="n"/>
+      <c r="B6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -508,10 +516,10 @@
           <t>Sachin.J</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="2" t="n">
         <v>45026.46113653935</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="2" t="n">
         <v>45026.4611368287</v>
       </c>
       <c r="D7" t="inlineStr">
@@ -526,10 +534,10 @@
           <t>Sachin.J</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="2" t="n">
         <v>45026.46222858796</v>
       </c>
-      <c r="C8" s="4" t="n"/>
+      <c r="C8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -537,7 +545,7 @@
           <t>Sachin.J</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="2" t="n">
         <v>45026.46253491898</v>
       </c>
     </row>
@@ -547,10 +555,10 @@
           <t>Sachin.J</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="2" t="n">
         <v>45026.46278</v>
       </c>
-      <c r="C10" s="4" t="n"/>
+      <c r="C10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -558,10 +566,10 @@
           <t>Sachin.J</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="2" t="n">
         <v>45026.46294864584</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="2" t="n">
         <v>45026.46294890047</v>
       </c>
       <c r="D11" t="inlineStr">
@@ -576,7 +584,7 @@
           <t>Sachin.J</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="2" t="n">
         <v>45026.46556219908</v>
       </c>
     </row>
@@ -586,10 +594,10 @@
           <t>Sachin.J</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="2" t="n">
         <v>45026.46667612268</v>
       </c>
-      <c r="C13" s="4" t="n"/>
+      <c r="C13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -597,7 +605,7 @@
           <t>Sachin.J</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="2" t="n">
         <v>45026.46725607639</v>
       </c>
     </row>
@@ -607,10 +615,10 @@
           <t>Sachin.J</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="2" t="n">
         <v>45026.47054340278</v>
       </c>
-      <c r="C15" s="4" t="n"/>
+      <c r="C15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -618,10 +626,10 @@
           <t>Sachin.J</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="2" t="n">
         <v>45026.4875428588</v>
       </c>
-      <c r="C16" s="4" t="n"/>
+      <c r="C16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -629,10 +637,10 @@
           <t>Sachin.J</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="2" t="n">
         <v>45026.82137548611</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="2" t="n">
         <v>45026.82137575231</v>
       </c>
       <c r="D17" t="inlineStr">
@@ -647,114 +655,353 @@
           <t>Sachin.J</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>45027.45961127426</v>
+      <c r="B18" s="2" t="n">
+        <v>45027.45961127315</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="4" t="n"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45027.47205671296</v>
+      </c>
     </row>
     <row r="20">
-      <c r="B20" s="4" t="n"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45027.52261796296</v>
+      </c>
     </row>
     <row r="21">
-      <c r="B21" s="4" t="n"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45027.54443662037</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>45027.54443710648</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="B22" s="4" t="n"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45027.54569222222</v>
+      </c>
     </row>
     <row r="23">
-      <c r="B23" s="4" t="n"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45027.55165373842</v>
+      </c>
     </row>
     <row r="24">
-      <c r="B24" s="4" t="n"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45027.55354018519</v>
+      </c>
     </row>
     <row r="25">
-      <c r="B25" s="4" t="n"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45027.55370246528</v>
+      </c>
     </row>
     <row r="26">
-      <c r="B26" s="4" t="n"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45027.55404255787</v>
+      </c>
     </row>
     <row r="27">
-      <c r="B27" s="4" t="n"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45027.5547591088</v>
+      </c>
     </row>
     <row r="28">
-      <c r="B28" s="4" t="n"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45027.55576263889</v>
+      </c>
     </row>
     <row r="29">
-      <c r="B29" s="4" t="n"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45027.55712054398</v>
+      </c>
     </row>
     <row r="30">
-      <c r="B30" s="4" t="n"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45027.56035625</v>
+      </c>
     </row>
     <row r="31">
-      <c r="B31" s="4" t="n"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45027.5625693287</v>
+      </c>
     </row>
     <row r="32">
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="4" t="n"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45027.57260163195</v>
+      </c>
+      <c r="C32" s="2" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="4" t="n"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45027.57355438657</v>
+      </c>
     </row>
     <row r="34">
-      <c r="B34" s="4" t="n"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45027.57592548611</v>
+      </c>
     </row>
     <row r="35">
-      <c r="B35" s="4" t="n"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45027.57651534722</v>
+      </c>
     </row>
     <row r="36">
-      <c r="B36" s="4" t="n"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45027.57872576389</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>45027.58909797454</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="B37" s="4" t="n"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45027.60715758102</v>
+      </c>
     </row>
     <row r="38">
-      <c r="B38" s="4" t="n"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45027.61873458333</v>
+      </c>
     </row>
     <row r="39">
-      <c r="B39" s="4" t="n"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45027.62560151621</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="4" t="n"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45027.63187524305</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>45027.63666766204</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="4" t="n"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45027.66679520833</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>45027.66679564815</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="4" t="n"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45027.66697065972</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>45027.66697085648</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="4" t="n"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45027.66714756945</v>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>45027.66714777778</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="B44" s="4" t="n"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45027.66746058257</v>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>45027.67248697823</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="B45" s="4" t="n"/>
+      <c r="B45" s="2" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="4" t="n"/>
+      <c r="B46" s="2" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="4" t="n"/>
+      <c r="B47" s="2" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="4" t="n"/>
+      <c r="B48" s="2" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="4" t="n"/>
+      <c r="B49" s="2" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="4" t="n"/>
+      <c r="B50" s="2" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="4" t="n"/>
+      <c r="B51" s="2" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="4" t="n"/>
+      <c r="B52" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Logs/Logs.xlsx
+++ b/Logs/Logs.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45027.66746058257</v>
+        <v>45027.6674605787</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>45027.67248697823</v>
+        <v>45027.67248697917</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -977,28 +977,2020 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="2" t="n"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45027.76124714121</v>
+      </c>
     </row>
     <row r="46">
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45027.7616025463</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="2" t="n"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45027.76181089121</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45027.76753332176</v>
+      </c>
     </row>
     <row r="49">
-      <c r="B49" s="2" t="n"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45027.76803734954</v>
+      </c>
     </row>
     <row r="50">
-      <c r="B50" s="2" t="n"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45027.76878960648</v>
+      </c>
     </row>
     <row r="51">
-      <c r="B51" s="2" t="n"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>45027.77262537037</v>
+      </c>
     </row>
     <row r="52">
-      <c r="B52" s="2" t="n"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>45027.77416890046</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>45027.77544113426</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>45027.77897195602</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B55" s="5" t="n">
+        <v>45027.78199679398</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B56" s="5" t="n">
+        <v>45027.78427680556</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B57" s="5" t="n">
+        <v>45027.78505951389</v>
+      </c>
+      <c r="C57" s="5" t="n">
+        <v>45027.78824987268</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B58" s="5" t="n">
+        <v>45027.78997153935</v>
+      </c>
+      <c r="C58" s="5" t="n">
+        <v>45027.78997180556</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B59" s="5" t="n">
+        <v>45027.7901597338</v>
+      </c>
+      <c r="C59" s="5" t="n">
+        <v>45027.79015990741</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B60" s="5" t="n">
+        <v>45027.79016144676</v>
+      </c>
+      <c r="C60" s="5" t="n">
+        <v>45027.79016155093</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B61" s="5" t="n">
+        <v>45027.79022520834</v>
+      </c>
+      <c r="C61" s="5" t="n">
+        <v>45027.79022537037</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B62" s="5" t="n">
+        <v>45027.790559375</v>
+      </c>
+      <c r="C62" s="5" t="n">
+        <v>45027.79055965278</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B63" s="5" t="n">
+        <v>45027.79073763889</v>
+      </c>
+      <c r="C63" s="5" t="n">
+        <v>45027.79073777778</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B64" s="5" t="n">
+        <v>45027.79073950231</v>
+      </c>
+      <c r="C64" s="5" t="n">
+        <v>45027.79073960648</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B65" s="5" t="n">
+        <v>45027.79074126158</v>
+      </c>
+      <c r="C65" s="5" t="n">
+        <v>45027.79074145833</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B66" s="5" t="n">
+        <v>45027.79074300926</v>
+      </c>
+      <c r="C66" s="5" t="n">
+        <v>45027.79074315972</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B67" s="5" t="n">
+        <v>45027.79115555555</v>
+      </c>
+      <c r="C67" s="5" t="n">
+        <v>45027.79115578704</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B68" s="5" t="n">
+        <v>45027.79147167824</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>45027.79468165509</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B69" s="5" t="n">
+        <v>45027.79693386574</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B70" s="5" t="n">
+        <v>45027.80122679398</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B71" s="5" t="n">
+        <v>45027.80285160879</v>
+      </c>
+      <c r="C71" s="5" t="n">
+        <v>45027.80641478009</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B72" s="5" t="n">
+        <v>45027.84005503472</v>
+      </c>
+      <c r="C72" s="5" t="n">
+        <v>45027.84005521991</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B73" s="5" t="n">
+        <v>45027.84010052084</v>
+      </c>
+      <c r="C73" s="5" t="n">
+        <v>45027.8401006713</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B74" s="5" t="n">
+        <v>45027.84045358796</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B75" s="5" t="n">
+        <v>45027.84232657407</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B76" s="5" t="n">
+        <v>45027.84831212963</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B77" s="5" t="n">
+        <v>45027.84908478009</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B78" s="5" t="n">
+        <v>45027.85069063657</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B79" s="5" t="n">
+        <v>45028.4101828125</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B80" s="5" t="n">
+        <v>45028.41153152778</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B81" s="5" t="n">
+        <v>45028.41207939815</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B82" s="5" t="n">
+        <v>45028.41316188657</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B83" s="5" t="n">
+        <v>45028.41414005787</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B84" s="5" t="n">
+        <v>45028.41524483796</v>
+      </c>
+      <c r="C84" s="5" t="n">
+        <v>45028.41677052083</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B85" s="5" t="n">
+        <v>45028.41753659722</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B86" s="5" t="n">
+        <v>45028.41955754629</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B87" s="5" t="n">
+        <v>45028.42220047454</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B88" s="5" t="n">
+        <v>45028.42485490741</v>
+      </c>
+      <c r="C88" s="5" t="n">
+        <v>45028.42654609954</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B89" s="5" t="n">
+        <v>45028.42681690972</v>
+      </c>
+      <c r="C89" s="5" t="n">
+        <v>45028.42681715278</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B90" s="5" t="n">
+        <v>45028.4297996875</v>
+      </c>
+      <c r="C90" s="5" t="n">
+        <v>45028.42979989584</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B91" s="5" t="n">
+        <v>45028.42981243056</v>
+      </c>
+      <c r="C91" s="5" t="n">
+        <v>45028.42981266203</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B92" s="5" t="n">
+        <v>45028.4301353125</v>
+      </c>
+      <c r="C92" s="5" t="n">
+        <v>45028.43144900463</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B93" s="5" t="n">
+        <v>45028.43285256944</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B94" s="5" t="n">
+        <v>45028.43344771991</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B95" s="5" t="n">
+        <v>45028.43614755787</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B96" s="5" t="n">
+        <v>45028.43787184028</v>
+      </c>
+      <c r="C96" s="5" t="n">
+        <v>45028.43923693287</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B97" s="5" t="n">
+        <v>45028.44200001157</v>
+      </c>
+      <c r="C97" s="5" t="n">
+        <v>45028.4420002199</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B98" s="5" t="n">
+        <v>45028.44205314814</v>
+      </c>
+      <c r="C98" s="5" t="n">
+        <v>45028.44205329861</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B99" s="5" t="n">
+        <v>45028.44242309028</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B100" s="5" t="n">
+        <v>45028.44860127315</v>
+      </c>
+      <c r="C100" s="5" t="n">
+        <v>45028.45154371528</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B101" s="5" t="n">
+        <v>45028.47168185185</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B102" s="5" t="n">
+        <v>45028.47413577546</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B103" s="5" t="n">
+        <v>45028.47471451389</v>
+      </c>
+      <c r="C103" s="5" t="n">
+        <v>45028.47821356481</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B104" s="5" t="n">
+        <v>45028.48103131945</v>
+      </c>
+      <c r="C104" s="5" t="n">
+        <v>45028.48443596065</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B105" s="5" t="n">
+        <v>45028.48933821759</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B106" s="5" t="n">
+        <v>45028.49251630787</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B107" s="5" t="n">
+        <v>45028.49502318287</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B108" s="5" t="n">
+        <v>45028.49752025463</v>
+      </c>
+      <c r="C108" s="5" t="n">
+        <v>45028.50106413195</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B109" s="5" t="n">
+        <v>45028.51959717592</v>
+      </c>
+      <c r="C109" s="5" t="n">
+        <v>45028.52482318287</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B110" s="5" t="n">
+        <v>45028.52584363426</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B111" s="5" t="n">
+        <v>45028.52725177084</v>
+      </c>
+      <c r="C111" s="5" t="n">
+        <v>45028.53074239584</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B112" s="5" t="n">
+        <v>45028.53916862269</v>
+      </c>
+      <c r="C112" s="5" t="n">
+        <v>45028.54282787037</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B113" s="5" t="n">
+        <v>45028.54569775463</v>
+      </c>
+      <c r="C113" s="5" t="n">
+        <v>45028.54569797454</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B114" s="5" t="n">
+        <v>45028.54614685186</v>
+      </c>
+      <c r="C114" s="5" t="n">
+        <v>45028.54614701389</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B115" s="5" t="n">
+        <v>45028.54636457176</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B116" s="5" t="n">
+        <v>45028.54907398148</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B117" s="5" t="n">
+        <v>45028.55604221065</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B118" s="5" t="n">
+        <v>45028.5561378125</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B119" s="5" t="n">
+        <v>45028.55662883102</v>
+      </c>
+      <c r="C119" s="5" t="n">
+        <v>45028.56018998843</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B120" s="5" t="n">
+        <v>45028.59438152778</v>
+      </c>
+      <c r="C120" s="5" t="n">
+        <v>45028.59801885417</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B121" s="5" t="n">
+        <v>45028.60158493055</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B122" s="5" t="n">
+        <v>45028.60361340277</v>
+      </c>
+      <c r="C122" s="5" t="n">
+        <v>45028.60649907407</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B123" s="5" t="n">
+        <v>45028.60790524306</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B124" s="5" t="n">
+        <v>45028.60917461805</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B125" s="5" t="n">
+        <v>45028.61707502315</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B126" s="5" t="n">
+        <v>45028.61724109954</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B127" s="5" t="n">
+        <v>45028.61724287037</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B128" s="5" t="n">
+        <v>45028.6172446412</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B129" s="5" t="n">
+        <v>45028.61743730324</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B130" s="5" t="n">
+        <v>45028.62018649306</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B131" s="5" t="n">
+        <v>45028.62242936343</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B132" s="5" t="n">
+        <v>45028.6235237037</v>
+      </c>
+      <c r="C132" s="5" t="n">
+        <v>45028.62676440972</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B133" s="5" t="n">
+        <v>45028.62784295139</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B134" s="5" t="n">
+        <v>45028.63143020833</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B135" s="5" t="n">
+        <v>45028.63300665509</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B136" s="5" t="n">
+        <v>45028.6360590162</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B137" s="5" t="n">
+        <v>45028.63672466435</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B138" s="5" t="n">
+        <v>45028.63841094908</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B139" s="5" t="n">
+        <v>45028.63974372685</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B140" s="5" t="n">
+        <v>45028.64180903935</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B141" s="5" t="n">
+        <v>45028.64366043981</v>
+      </c>
+      <c r="C141" s="5" t="n">
+        <v>45028.64727774305</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B142" s="5" t="n">
+        <v>45028.64770001158</v>
+      </c>
+      <c r="C142" s="5" t="n">
+        <v>45028.65132303241</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B143" s="5" t="n">
+        <v>45028.65215071759</v>
+      </c>
+      <c r="C143" s="5" t="n">
+        <v>45028.65537225694</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B144" s="5" t="n">
+        <v>45028.65667240741</v>
+      </c>
+      <c r="C144" s="5" t="n">
+        <v>45028.65972309028</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B145" s="5" t="n">
+        <v>45028.66053766204</v>
+      </c>
+      <c r="C145" s="5" t="n">
+        <v>45028.66447769676</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B146" s="5" t="n">
+        <v>45028.66646402778</v>
+      </c>
+      <c r="C146" s="5" t="n">
+        <v>45028.66646417824</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B147" s="5" t="n">
+        <v>45028.66760423611</v>
+      </c>
+      <c r="C147" s="5" t="n">
+        <v>45028.67074962963</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B148" s="5" t="n">
+        <v>45028.67810462963</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B149" s="5" t="n">
+        <v>45028.67810686342</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B150" s="5" t="n">
+        <v>45028.67918708333</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B151" s="5" t="n">
+        <v>45028.68344203704</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B152" s="5" t="n">
+        <v>45028.68808915509</v>
+      </c>
+      <c r="C152" s="5" t="n">
+        <v>45028.69085208333</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B153" s="5" t="n">
+        <v>45028.69451706018</v>
+      </c>
+      <c r="C153" s="5" t="n">
+        <v>45028.69761298611</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B154" s="5" t="n">
+        <v>45028.69911409722</v>
+      </c>
+      <c r="C154" s="5" t="n">
+        <v>45028.70179961806</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B155" s="5" t="n">
+        <v>45028.70614880787</v>
+      </c>
+      <c r="C155" s="5" t="n">
+        <v>45028.70872383102</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B156" s="5" t="n">
+        <v>45028.71545527778</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B157" s="5" t="n">
+        <v>45028.71633521991</v>
+      </c>
+      <c r="C157" s="5" t="n">
+        <v>45028.71960105324</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B158" s="5" t="n">
+        <v>45028.72841121528</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B159" s="5" t="n">
+        <v>45028.73206211806</v>
+      </c>
+      <c r="C159" s="5" t="n">
+        <v>45028.73477138889</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B160" s="5" t="n">
+        <v>45029.39654409722</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B161" s="5" t="n">
+        <v>45029.39766001157</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B162" s="5" t="n">
+        <v>45029.39977851852</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B163" s="5" t="n">
+        <v>45029.40581784722</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B164" s="5" t="n">
+        <v>45029.40659254629</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B165" s="5" t="n">
+        <v>45029.40908917824</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B166" s="5" t="n">
+        <v>45029.415319375</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B167" s="5" t="n">
+        <v>45029.41682420139</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B168" s="5" t="n">
+        <v>45029.41800643518</v>
+      </c>
+      <c r="C168" s="5" t="n">
+        <v>45029.41967049769</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B169" s="5" t="n">
+        <v>45029.42094246528</v>
+      </c>
+      <c r="C169" s="5" t="n">
+        <v>45029.42094269676</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B170" s="5" t="n">
+        <v>45029.42111084491</v>
+      </c>
+      <c r="C170" s="5" t="n">
+        <v>45029.42111105324</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B171" s="5" t="n">
+        <v>45029.42127429398</v>
+      </c>
+      <c r="C171" s="5" t="n">
+        <v>45029.42418804398</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B172" s="5" t="n">
+        <v>45029.4248959375</v>
+      </c>
+      <c r="C172" s="5" t="n">
+        <v>45029.42623563657</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B173" s="5" t="n">
+        <v>45029.42851752315</v>
+      </c>
+      <c r="C173" s="5" t="n">
+        <v>45029.42975238426</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B174" s="5" t="n">
+        <v>45029.68064988426</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B175" s="5" t="n">
+        <v>45029.68324160879</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B176" s="5" t="n">
+        <v>45029.68627974537</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B177" s="5" t="n">
+        <v>45029.68805247685</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B178" s="5" t="n">
+        <v>45029.68998017361</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B179" s="5" t="n">
+        <v>45029.69063664352</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B180" s="5" t="n">
+        <v>45029.69153141203</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B181" s="5" t="n">
+        <v>45029.69426954861</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B182" s="5" t="n">
+        <v>45029.69516278935</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B183" s="5" t="n">
+        <v>45029.6969815162</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B184" s="5" t="n">
+        <v>45029.69798819444</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B185" s="5" t="n">
+        <v>45029.70280678241</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B186" s="5" t="n">
+        <v>45029.71151509259</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B187" s="5" t="n">
+        <v>45029.71438545139</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B188" s="5" t="n">
+        <v>45029.72449528935</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B189" s="5" t="n">
+        <v>45029.72687846065</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B190" s="5" t="n">
+        <v>45029.72769822917</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B191" s="5" t="n">
+        <v>45029.82933023149</v>
+      </c>
+      <c r="C191" s="5" t="n">
+        <v>45029.83076070602</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B192" s="5" t="n">
+        <v>45029.83531664352</v>
+      </c>
+      <c r="C192" s="5" t="n">
+        <v>45029.83723561343</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B193" s="5" t="n">
+        <v>45030.37206313657</v>
+      </c>
+      <c r="C193" s="5" t="n">
+        <v>45030.37393498843</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B194" s="5" t="n">
+        <v>45030.42097002315</v>
+      </c>
+      <c r="C194" s="5" t="n">
+        <v>45030.42097038194</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B195" s="5" t="n">
+        <v>45030.43345984954</v>
+      </c>
+      <c r="C195" s="5" t="n">
+        <v>45030.43346003472</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B196" s="5" t="n">
+        <v>45030.43379539945</v>
+      </c>
+      <c r="C196" s="5" t="n">
+        <v>45030.43562432972</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logs/Logs.xlsx
+++ b/Logs/Logs.xlsx
@@ -434,13 +434,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D196"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="13.453125" customWidth="1" min="1" max="1"/>
     <col width="25.1796875" customWidth="1" min="2" max="2"/>
@@ -2981,15 +2981,53 @@
         </is>
       </c>
       <c r="B196" s="5" t="n">
-        <v>45030.43379539945</v>
+        <v>45030.43379540509</v>
       </c>
       <c r="C196" s="5" t="n">
-        <v>45030.43562432972</v>
+        <v>45030.4356243287</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
           <t>Task Completed</t>
         </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B197" s="5" t="n">
+        <v>45030.48791054398</v>
+      </c>
+      <c r="C197" s="5" t="n">
+        <v>45030.48954752315</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B198" s="5" t="n">
+        <v>45030.76237565972</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B199" s="5" t="n">
+        <v>45030.76890122537</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/Logs.xlsx
+++ b/Logs/Logs.xlsx
@@ -434,13 +434,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="13.453125" customWidth="1" min="1" max="1"/>
     <col width="25.1796875" customWidth="1" min="2" max="2"/>
@@ -3027,7 +3027,489 @@
         </is>
       </c>
       <c r="B199" s="5" t="n">
-        <v>45030.76890122537</v>
+        <v>45030.76890122685</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B200" s="5" t="n">
+        <v>45033.42627841435</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B201" s="5" t="n">
+        <v>45033.42646563658</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B202" s="5" t="n">
+        <v>45033.42771811342</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B203" s="5" t="n">
+        <v>45033.42879712963</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B204" s="5" t="n">
+        <v>45033.42974657407</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B205" s="5" t="n">
+        <v>45033.4335003588</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B206" s="5" t="n">
+        <v>45033.4347703125</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B207" s="5" t="n">
+        <v>45033.43629678241</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B208" s="5" t="n">
+        <v>45033.43777990741</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B209" s="5" t="n">
+        <v>45033.43910563657</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B210" s="5" t="n">
+        <v>45033.44121050926</v>
+      </c>
+      <c r="C210" s="5" t="n">
+        <v>45033.44266613426</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B211" s="5" t="n">
+        <v>45033.44728863426</v>
+      </c>
+      <c r="C211" s="5" t="n">
+        <v>45033.44987028935</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B212" s="5" t="n">
+        <v>45033.4507703588</v>
+      </c>
+      <c r="C212" s="5" t="n">
+        <v>45033.4531612037</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B213" s="5" t="n">
+        <v>45033.46771299768</v>
+      </c>
+      <c r="C213" s="5" t="n">
+        <v>45033.47024428241</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B214" s="5" t="n">
+        <v>45033.4858921412</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B215" s="5" t="n">
+        <v>45033.48809232639</v>
+      </c>
+      <c r="C215" s="5" t="n">
+        <v>45033.49105202546</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B216" s="5" t="n">
+        <v>45033.49266876157</v>
+      </c>
+      <c r="C216" s="5" t="n">
+        <v>45033.49552952546</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B217" s="5" t="n">
+        <v>45033.50947891203</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B218" s="5" t="n">
+        <v>45033.51249483796</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B219" s="5" t="n">
+        <v>45033.51250019676</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B220" s="5" t="n">
+        <v>45033.51479619213</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B221" s="5" t="n">
+        <v>45033.51566179398</v>
+      </c>
+      <c r="C221" s="5" t="n">
+        <v>45033.51804891204</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B222" s="5" t="n">
+        <v>45033.53511444444</v>
+      </c>
+      <c r="C222" s="5" t="n">
+        <v>45033.53511462963</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B223" s="5" t="n">
+        <v>45033.53528024306</v>
+      </c>
+      <c r="C223" s="5" t="n">
+        <v>45033.53528061343</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B224" s="5" t="n">
+        <v>45033.53557015046</v>
+      </c>
+      <c r="C224" s="5" t="n">
+        <v>45033.53827359954</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B225" s="5" t="n">
+        <v>45033.54332842593</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B226" s="5" t="n">
+        <v>45033.5435078588</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B227" s="5" t="n">
+        <v>45033.54420890046</v>
+      </c>
+      <c r="C227" s="5" t="n">
+        <v>45033.54682640046</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B228" s="5" t="n">
+        <v>45033.5496528588</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B229" s="5" t="n">
+        <v>45033.54995434028</v>
+      </c>
+      <c r="C229" s="5" t="n">
+        <v>45033.55242112269</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B230" s="5" t="n">
+        <v>45033.60823576389</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B231" s="5" t="n">
+        <v>45033.6085828588</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B232" s="5" t="n">
+        <v>45033.60908841435</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B233" s="5" t="n">
+        <v>45033.60940369213</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B234" s="5" t="n">
+        <v>45033.61319828704</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B235" s="5" t="n">
+        <v>45033.61477613426</v>
+      </c>
+      <c r="C235" s="5" t="n">
+        <v>45033.6172865625</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B236" s="5" t="n">
+        <v>45033.63365783583</v>
+      </c>
+      <c r="C236" s="5" t="n">
+        <v>45033.63600250306</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Logs/Logs.xlsx
+++ b/Logs/Logs.xlsx
@@ -434,13 +434,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D236"/>
+  <dimension ref="A1:D237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="13.453125" customWidth="1" min="1" max="1"/>
     <col width="25.1796875" customWidth="1" min="2" max="2"/>
@@ -3501,15 +3501,25 @@
         </is>
       </c>
       <c r="B236" s="5" t="n">
-        <v>45033.63365783583</v>
+        <v>45033.63365783565</v>
       </c>
       <c r="C236" s="5" t="n">
-        <v>45033.63600250306</v>
+        <v>45033.6360025</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
           <t>Task Completed</t>
         </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B237" s="5" t="n">
+        <v>45035.71569901025</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/Logs.xlsx
+++ b/Logs/Logs.xlsx
@@ -434,13 +434,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:D253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="13.453125" customWidth="1" min="1" max="1"/>
     <col width="25.1796875" customWidth="1" min="2" max="2"/>
@@ -3519,7 +3519,175 @@
         </is>
       </c>
       <c r="B237" s="5" t="n">
-        <v>45035.71569901025</v>
+        <v>45035.71569900463</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B238" s="5" t="n">
+        <v>45037.85381876157</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B239" s="5" t="n">
+        <v>45037.8589227199</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B240" s="5" t="n">
+        <v>45037.8589366088</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B241" s="5" t="n">
+        <v>45037.85893854166</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B242" s="5" t="n">
+        <v>45037.88856244213</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B243" s="5" t="n">
+        <v>45037.88856995371</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B244" s="5" t="n">
+        <v>45037.88921078703</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B245" s="5" t="n">
+        <v>45037.89259315972</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B246" s="5" t="n">
+        <v>45037.89321900463</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B247" s="5" t="n">
+        <v>45037.9012759375</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B248" s="5" t="n">
+        <v>45037.90478697917</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B249" s="5" t="n">
+        <v>45037.91730704861</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B250" s="5" t="n">
+        <v>45040.39930010417</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B251" s="5" t="n">
+        <v>45040.40086269676</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B252" s="5" t="n">
+        <v>45040.40244461806</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B253" s="5" t="n">
+        <v>45040.40332229834</v>
+      </c>
+      <c r="C253" s="5" t="n">
+        <v>45040.40910114833</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Logs/Logs.xlsx
+++ b/Logs/Logs.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D253"/>
+  <dimension ref="A1:D254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -3679,12 +3679,30 @@
         </is>
       </c>
       <c r="B253" s="5" t="n">
-        <v>45040.40332229834</v>
+        <v>45040.40332230324</v>
       </c>
       <c r="C253" s="5" t="n">
-        <v>45040.40910114833</v>
+        <v>45040.40910114584</v>
       </c>
       <c r="D253" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B254" s="5" t="n">
+        <v>45040.42691150028</v>
+      </c>
+      <c r="C254" s="5" t="n">
+        <v>45040.43248559973</v>
+      </c>
+      <c r="D254" t="inlineStr">
         <is>
           <t>Task Completed</t>
         </is>

--- a/Logs/Logs.xlsx
+++ b/Logs/Logs.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D254"/>
+  <dimension ref="A1:D264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -3697,12 +3697,136 @@
         </is>
       </c>
       <c r="B254" s="5" t="n">
-        <v>45040.42691150028</v>
+        <v>45040.42691150463</v>
       </c>
       <c r="C254" s="5" t="n">
-        <v>45040.43248559973</v>
+        <v>45040.43248560185</v>
       </c>
       <c r="D254" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B255" s="5" t="n">
+        <v>45044.65829824074</v>
+      </c>
+      <c r="C255" s="5" t="n">
+        <v>45044.65829912037</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B256" s="5" t="n">
+        <v>45044.65922574074</v>
+      </c>
+      <c r="C256" s="5" t="n">
+        <v>45044.65922609954</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Task Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B257" s="5" t="n">
+        <v>45044.65971530093</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B258" s="5" t="n">
+        <v>45044.6599622338</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B259" s="5" t="n">
+        <v>45044.66246196759</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B260" s="5" t="n">
+        <v>45044.66285917824</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B261" s="5" t="n">
+        <v>45044.66322621528</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B262" s="5" t="n">
+        <v>45044.73396217592</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B263" s="5" t="n">
+        <v>45044.73535428241</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Sachin.J</t>
+        </is>
+      </c>
+      <c r="B264" s="5" t="n">
+        <v>45044.73543199736</v>
+      </c>
+      <c r="C264" s="5" t="n">
+        <v>45044.73543217816</v>
+      </c>
+      <c r="D264" t="inlineStr">
         <is>
           <t>Task Completed</t>
         </is>
